--- a/To be or not to be/songs_week1.xlsx
+++ b/To be or not to be/songs_week1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{589132DB-9F42-499B-AB77-CBB2EE228EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD0FF43-CB16-47E9-89C6-F7A5DBD191CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A476A575-F8CE-4B27-A91C-FAC09EEF2D86}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="140">
   <si>
     <t>track</t>
   </si>
@@ -444,6 +444,18 @@
   </si>
   <si>
     <t>Ginger Root</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
   </si>
 </sst>
 </file>
@@ -451,12 +463,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -482,10 +500,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8731CFD-7877-4E63-9C83-055ECB39D9E9}">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,8 +854,8 @@
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -891,6 +910,12 @@
         <f>F2+E2</f>
         <v>0.32500000000000001</v>
       </c>
+      <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45658</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -916,6 +941,12 @@
         <f t="shared" ref="G3:G66" si="0">F3+E3</f>
         <v>0.3263888888888889</v>
       </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45658</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -940,6 +971,12 @@
         <f t="shared" si="0"/>
         <v>0.33124999999999999</v>
       </c>
+      <c r="H4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45658</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
@@ -967,6 +1004,12 @@
         <f t="shared" si="0"/>
         <v>0.33263888888888887</v>
       </c>
+      <c r="H5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45658</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
@@ -987,12 +1030,18 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:F30" si="1">G5</f>
+        <f t="shared" ref="F6:F28" si="1">G5</f>
         <v>0.33263888888888887</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>0.33402777777777776</v>
+      </c>
+      <c r="H6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45658</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1021,6 +1070,12 @@
         <f t="shared" si="0"/>
         <v>0.33611111111111108</v>
       </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45658</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
@@ -1048,6 +1103,12 @@
         <f t="shared" si="0"/>
         <v>0.33819444444444441</v>
       </c>
+      <c r="H8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45658</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
@@ -1075,6 +1136,12 @@
         <f t="shared" si="0"/>
         <v>0.34027777777777773</v>
       </c>
+      <c r="H9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45658</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
@@ -1102,6 +1169,12 @@
         <f t="shared" si="0"/>
         <v>0.34166666666666662</v>
       </c>
+      <c r="H10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45658</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
@@ -1129,6 +1202,12 @@
         <f t="shared" si="0"/>
         <v>0.34374999999999994</v>
       </c>
+      <c r="H11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45658</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1153,6 +1232,12 @@
         <f t="shared" si="0"/>
         <v>0.51041666666666663</v>
       </c>
+      <c r="H12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45658</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1178,6 +1263,12 @@
         <f t="shared" si="0"/>
         <v>0.51180555555555551</v>
       </c>
+      <c r="H13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45658</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1203,6 +1294,12 @@
         <f>F14+E14</f>
         <v>0.51458333333333328</v>
       </c>
+      <c r="H14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45658</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1227,6 +1324,12 @@
         <f>F15+E15</f>
         <v>0.53888888888888886</v>
       </c>
+      <c r="H15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45658</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1252,8 +1355,14 @@
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1276,8 +1385,14 @@
         <f>F17+E17</f>
         <v>0.73888888888888893</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1301,8 +1416,14 @@
         <f t="shared" si="0"/>
         <v>0.74097222222222225</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1326,8 +1447,14 @@
         <f t="shared" si="0"/>
         <v>0.74305555555555558</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1351,8 +1478,14 @@
         <f t="shared" si="0"/>
         <v>0.74444444444444446</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1376,8 +1509,14 @@
         <f t="shared" si="0"/>
         <v>0.74652777777777779</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1401,8 +1540,14 @@
         <f t="shared" si="0"/>
         <v>0.74791666666666667</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1426,8 +1571,14 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1451,8 +1602,14 @@
         <f t="shared" si="0"/>
         <v>0.75208333333333333</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1475,8 +1632,14 @@
         <f t="shared" si="0"/>
         <v>0.81805555555555554</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1500,8 +1663,14 @@
         <f t="shared" si="0"/>
         <v>0.82013888888888886</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1525,8 +1694,14 @@
         <f t="shared" si="0"/>
         <v>0.82222222222222219</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -1550,8 +1725,14 @@
         <f t="shared" si="0"/>
         <v>0.82430555555555551</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1574,8 +1755,14 @@
         <f t="shared" si="0"/>
         <v>0.32847222222222222</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1598,8 +1785,14 @@
         <f t="shared" si="0"/>
         <v>0.33194444444444443</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -1623,8 +1816,14 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1641,15 +1840,21 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" ref="F32:F78" si="2">G31</f>
+        <f t="shared" ref="F32:F77" si="2">G31</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="0"/>
         <v>0.3347222222222222</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1673,8 +1878,14 @@
         <f t="shared" si="0"/>
         <v>0.33680555555555552</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1698,8 +1909,14 @@
         <f t="shared" si="0"/>
         <v>0.33888888888888885</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1723,8 +1940,14 @@
         <f t="shared" si="0"/>
         <v>0.34097222222222218</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1747,8 +1970,14 @@
         <f t="shared" si="0"/>
         <v>0.73472222222222217</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>137</v>
+      </c>
+      <c r="I36" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1772,8 +2001,14 @@
         <f t="shared" si="0"/>
         <v>0.73611111111111105</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1797,8 +2032,14 @@
         <f t="shared" si="0"/>
         <v>0.74166666666666659</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1822,8 +2063,14 @@
         <f t="shared" si="0"/>
         <v>0.74444444444444435</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1847,8 +2094,14 @@
         <f t="shared" si="0"/>
         <v>0.74652777777777768</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>137</v>
+      </c>
+      <c r="I40" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1872,8 +2125,14 @@
         <f t="shared" si="0"/>
         <v>0.74861111111111101</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1897,8 +2156,14 @@
         <f t="shared" si="0"/>
         <v>0.75138888888888877</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>137</v>
+      </c>
+      <c r="I42" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1922,8 +2187,14 @@
         <f t="shared" si="0"/>
         <v>0.75277777777777766</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>137</v>
+      </c>
+      <c r="I43" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -1947,8 +2218,14 @@
         <f t="shared" si="0"/>
         <v>0.75416666666666654</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>137</v>
+      </c>
+      <c r="I44" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -1972,8 +2249,14 @@
         <f t="shared" si="0"/>
         <v>0.75555555555555542</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1997,8 +2280,14 @@
         <f t="shared" si="0"/>
         <v>0.75763888888888875</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2022,8 +2311,14 @@
         <f t="shared" si="0"/>
         <v>0.76041666666666652</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47" s="3">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -2046,6 +2341,12 @@
       <c r="G48" s="2">
         <f t="shared" si="0"/>
         <v>0.76249999999999984</v>
+      </c>
+      <c r="H48" t="s">
+        <v>137</v>
+      </c>
+      <c r="I48" s="3">
+        <v>45717</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2072,6 +2373,12 @@
         <f t="shared" si="0"/>
         <v>0.76458333333333317</v>
       </c>
+      <c r="H49" t="s">
+        <v>137</v>
+      </c>
+      <c r="I49" s="3">
+        <v>45717</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -2097,6 +2404,12 @@
         <f t="shared" si="0"/>
         <v>0.76597222222222205</v>
       </c>
+      <c r="H50" t="s">
+        <v>137</v>
+      </c>
+      <c r="I50" s="3">
+        <v>45717</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -2121,6 +2434,12 @@
         <f t="shared" si="0"/>
         <v>0.34236111111111112</v>
       </c>
+      <c r="H51" t="s">
+        <v>138</v>
+      </c>
+      <c r="I51" s="3">
+        <v>45778</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -2146,6 +2465,12 @@
         <f t="shared" si="0"/>
         <v>0.34375</v>
       </c>
+      <c r="H52" t="s">
+        <v>138</v>
+      </c>
+      <c r="I52" s="3">
+        <v>45778</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -2171,6 +2496,12 @@
         <f t="shared" si="0"/>
         <v>0.34583333333333333</v>
       </c>
+      <c r="H53" t="s">
+        <v>138</v>
+      </c>
+      <c r="I53" s="3">
+        <v>45778</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -2196,6 +2527,12 @@
         <f t="shared" si="0"/>
         <v>0.34722222222222221</v>
       </c>
+      <c r="H54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I54" s="3">
+        <v>45778</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -2221,6 +2558,12 @@
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
+      <c r="H55" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" s="3">
+        <v>45778</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -2246,6 +2589,12 @@
         <f t="shared" si="0"/>
         <v>0.35138888888888886</v>
       </c>
+      <c r="H56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I56" s="3">
+        <v>45778</v>
+      </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
@@ -2273,6 +2622,12 @@
         <f t="shared" si="0"/>
         <v>0.35486111111111107</v>
       </c>
+      <c r="H57" t="s">
+        <v>138</v>
+      </c>
+      <c r="I57" s="3">
+        <v>45778</v>
+      </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
@@ -2300,6 +2655,12 @@
         <f t="shared" si="0"/>
         <v>0.3569444444444444</v>
       </c>
+      <c r="H58" t="s">
+        <v>138</v>
+      </c>
+      <c r="I58" s="3">
+        <v>45778</v>
+      </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
@@ -2327,6 +2688,12 @@
         <f t="shared" si="0"/>
         <v>0.35902777777777772</v>
       </c>
+      <c r="H59" t="s">
+        <v>138</v>
+      </c>
+      <c r="I59" s="3">
+        <v>45778</v>
+      </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
@@ -2354,6 +2721,12 @@
         <f t="shared" si="0"/>
         <v>0.36111111111111105</v>
       </c>
+      <c r="H60" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" s="3">
+        <v>45778</v>
+      </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
@@ -2381,6 +2754,12 @@
         <f t="shared" si="0"/>
         <v>0.36319444444444438</v>
       </c>
+      <c r="H61" t="s">
+        <v>138</v>
+      </c>
+      <c r="I61" s="3">
+        <v>45778</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -2405,6 +2784,12 @@
         <f t="shared" si="0"/>
         <v>0.77708333333333335</v>
       </c>
+      <c r="H62" t="s">
+        <v>138</v>
+      </c>
+      <c r="I62" s="3">
+        <v>45778</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -2429,6 +2814,12 @@
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
+      <c r="H63" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" s="3">
+        <v>45778</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -2454,8 +2845,14 @@
         <f t="shared" si="0"/>
         <v>0.89097222222222217</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>138</v>
+      </c>
+      <c r="I64" s="3">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -2479,8 +2876,14 @@
         <f t="shared" si="0"/>
         <v>0.89305555555555549</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>138</v>
+      </c>
+      <c r="I65" s="3">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -2504,8 +2907,14 @@
         <f t="shared" si="0"/>
         <v>0.89513888888888882</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>138</v>
+      </c>
+      <c r="I66" s="3">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -2526,11 +2935,17 @@
         <v>0.89513888888888882</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G78" si="3">F67+E67</f>
+        <f t="shared" ref="G67:G77" si="3">F67+E67</f>
         <v>0.89861111111111103</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>138</v>
+      </c>
+      <c r="I67" s="3">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -2553,8 +2968,14 @@
         <f t="shared" si="3"/>
         <v>0.46319444444444446</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>139</v>
+      </c>
+      <c r="I68" s="3">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -2578,8 +2999,14 @@
         <f t="shared" si="3"/>
         <v>0.46458333333333335</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>139</v>
+      </c>
+      <c r="I69" s="3">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -2603,8 +3030,14 @@
         <f t="shared" si="3"/>
         <v>0.46736111111111112</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>139</v>
+      </c>
+      <c r="I70" s="3">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>125</v>
       </c>
@@ -2628,8 +3061,14 @@
         <f t="shared" si="3"/>
         <v>0.47013888888888888</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>139</v>
+      </c>
+      <c r="I71" s="3">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -2652,8 +3091,14 @@
         <f t="shared" si="3"/>
         <v>0.65625</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>139</v>
+      </c>
+      <c r="I72" s="3">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -2677,8 +3122,14 @@
         <f t="shared" si="3"/>
         <v>0.65902777777777777</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>139</v>
+      </c>
+      <c r="I73" s="3">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -2702,8 +3153,14 @@
         <f t="shared" si="3"/>
         <v>0.66041666666666665</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>139</v>
+      </c>
+      <c r="I74" s="3">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>130</v>
       </c>
@@ -2727,8 +3184,14 @@
         <f t="shared" si="3"/>
         <v>0.66319444444444442</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>139</v>
+      </c>
+      <c r="I75" s="3">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -2752,8 +3215,14 @@
         <f t="shared" si="3"/>
         <v>0.6645833333333333</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>139</v>
+      </c>
+      <c r="I76" s="3">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>134</v>
       </c>
@@ -2777,12 +3246,19 @@
         <f t="shared" si="3"/>
         <v>0.66597222222222219</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>139</v>
+      </c>
+      <c r="I77" s="3">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
